--- a/item_list.xlsx
+++ b/item_list.xlsx
@@ -529,7 +529,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -574,7 +574,7 @@
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>https://jp.mercari.com/item/</t>
+          <t>https://jp.mercari.com/item/m59592900008</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -591,43 +591,116 @@
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>https://jp.mercari.com/item/m90600136218</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>【新品・匿名配送】ピアス　フルーツ（チェリー）　小さめ　両耳用</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>2024/02/18</t>
+        </is>
+      </c>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>https://jp.mercari.com/item/m57623365345</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>【新品・匿名配送】ピアス　フルーツ（グレープ）　小さめ　両耳用</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2024/02/18</t>
+        </is>
+      </c>
       <c r="E4" s="2" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>https://jp.mercari.com/item/m68053365268</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>【新品・匿名配送】ピアス　カニ　小さめ　両耳用</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2024/02/18</t>
+        </is>
+      </c>
       <c r="E5" s="2" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>https://jp.mercari.com/item/m95008653128</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>【新品・匿名配送】ピアス　揺れる シルバー925　両耳用　★3個セット</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2024/02/18</t>
+        </is>
+      </c>
       <c r="E6" s="2" t="n"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>https://jp.mercari.com/item/m68000374244</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>【新品・匿名配送】ピアス　揺れる シルバー925　両耳用　★2個セット</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2024/02/18</t>
+        </is>
+      </c>
       <c r="E7" s="2" t="n"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>https://jp.mercari.com/item/m57949572715</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>【新品・匿名配送】大人気！　ピアス　フルーツ（レモン）　海外　輸入</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2024/02/18</t>
+        </is>
+      </c>
       <c r="E8" s="2" t="n"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
